--- a/biology/Histoire de la zoologie et de la botanique/Jean-Pierre_Dedet/Jean-Pierre_Dedet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Pierre_Dedet/Jean-Pierre_Dedet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Dedet, né le 1er mai 1941 à Cournonterral en France, est un médecin et microbiologiste et universitaire français, spécialiste des leishmanioses.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Dedet fait ses études de médecine à Montpellier puis obtient une habilitation à diriger les recherches en 1990 à l'université Paris-VI. Il est chargé de recherches à l'Institut Pasteur de 1972 à 1977, puis chef de Laboratoire (1978-1989) et chef de Service (1990-1991). Détaché à l'Institut Pasteur d'Algérie de 1972 à 1976, il travaille à l'Institut Pasteur de Dakar, au Sénégal (1976-1978), puis à Paris (1978-1981) et à l'Institut Pasteur de la Guyane française (1981-1987).
 À l'Organisation mondiale de la santé, il est membre du Scientific Working Group on leishmaniasis de 1977 à 1984, et membre (1977-1981) puis président (1982-1984) du Steering Committee on Leishmaniasis epidemiology, parasitology, vector biology and control. De 1988 à 1991, il est codirecteur de l'Instituto Boliviano de Biologia de Altura (Bolivie).
 De retour en France, il est nommé à l'université Montpellier 1 et au CHRU de Montpellier en tant que professeur des universités-praticien hospitalier (1991-2010). Il est ensuite nommé chef de service du Laboratoire de parasitologie-mycologie du CHU de Montpellier (1994-2007), puis directeur de l’UMR 5093 CNRS-Université Montpellier 1 (1997-2007), directeur du Centre national de référence des Leishmania à Montpellier (1998-2010) et enfin directeur Collaborating Centre for Leishmaniasis de l’OMS à Montpellier (2004-2008).
-De 1977 à 2010, il est membre de comités d’experts sur les leishmanioses, à l’OMS à Genève[1].
+De 1977 à 2010, il est membre de comités d’experts sur les leishmanioses, à l’OMS à Genève.
 Depuis 2010, Jean-Pierre Dedet est professeur émérite de la faculté de médecine de Montpellier.
-Il est spécialiste de l'épidémiologie, de la clinique et du traitement des leishmanioses[2],[3],[4],[5]. Il a été classé, en 2013, second au niveau mondial en termes de publications et de collaborations dans le domaine des leishmanioses par la Revista da sociedade brasileira de medicina tropical[6].
+Il est spécialiste de l'épidémiologie, de la clinique et du traitement des leishmanioses. Il a été classé, en 2013, second au niveau mondial en termes de publications et de collaborations dans le domaine des leishmanioses par la Revista da sociedade brasileira de medicina tropical.
 </t>
         </is>
       </c>
@@ -547,12 +561,14 @@
           <t>Titres et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier des Palmes académiques
  Chevalier de l'Ordre national du Mérite
 Membre de l'Académie des sciences d’outre-mer : membre titulaire de la 4e section (en 2002)
-Membre (en 2014) et Président (en 2017-2021) de l'Académie des Hauts Cantons (fauteuil XX)[7]
+Membre (en 2014) et Président (en 2017-2021) de l'Académie des Hauts Cantons (fauteuil XX)
 Membre de l'Académie des Sciences et Lettres de Montpellier (section Médecine, fauteuil VIII) (2023)
 Lauréat de la Faculté de Médecine de Montpellier (Prix de thèse Cabannes, Histoire Naturelle, 1968)
 Lauréat de l'Académie nationale de Médecine (Prix Jean-François Coste d’Histoire de la Médecine,  pour l’ouvrage : « Les Instituts Pasteur d’outre-mer, cent vingt ans de microbiologie française dans le monde, 2002)
@@ -584,7 +600,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Instituts Pasteur d’Outre-mer, cent vingt ans de microbiologie française dans le monde (L’Harmattan, 2000). (Prix d’Histoire de la Médecine de l’Académie Nationale de Médecine, 2002).
 La Microbiologie, de ses origines aux maladies émergentes (Dunod, 2007).
@@ -596,9 +614,43 @@
 Teaching Medicine in Montpellier : a 900-year-long story. The oldest School of Medicine in the Western world (Sauranps-Medical, 2020).
 900 ans d'enseignement de la Médecine à Montpellier : la plus ancienne École de Médecine du Monde Occidental (Sauramps-Médical, 2020).
 Les épidémies. De la peste noire à la covid-19. (Dunod, Paris, collection EKHO, 2021).
-Les leishmanioses, Ellipses, 1999.
-Traductions d’ouvrages
-Clifford A.Pickover : Le Beau livre de la Médecine, Dunod, 2013
+Les leishmanioses, Ellipses, 1999.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Dedet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Dedet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traductions d’ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Clifford A.Pickover : Le Beau livre de la Médecine, Dunod, 2013
 Michael C. Gerald : Le Beau livre des remèdes et des médicaments, Dunod, 2014</t>
         </is>
       </c>
